--- a/IPL/Gujarat Titans/Shimron Hetmyer.xlsx
+++ b/IPL/Gujarat Titans/Shimron Hetmyer.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,68 +445,36 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C2" t="str">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D2" t="str">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" t="str">
         <v>2</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="str">
-        <v>170.58</v>
+        <v>215.38</v>
       </c>
       <c r="H2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J2" t="str">
-        <v>April 14 2022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Shimron Hetmyer</v>
-      </c>
-      <c r="C3" t="str">
-        <v>29</v>
-      </c>
-      <c r="D3" t="str">
-        <v>17</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>170.58</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
-      </c>
-      <c r="I3" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J3" t="str">
-        <v>April 14 2022</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Titans won by 37 runs</v>
+        <v>April 16 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>